--- a/biology/Médecine/Société_française_d'immunologie/Société_française_d'immunologie.xlsx
+++ b/biology/Médecine/Société_française_d'immunologie/Société_française_d'immunologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+          <t>Société_française_d'immunologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française d'immunologie (SFI) est une société savante fondée en 1966, spécialisée dans l'Immunologie, qui a vocation « d'encourager, de promouvoir et de réaliser toute action pouvant favoriser le développement de cette discipline. Elle se reconnaît une vocation pédagogique. ».
 Son siège est à l'Institut Pasteur à Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+          <t>Société_française_d'immunologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu’en 1966, la plupart des problèmes scientifiques relevant de l’immunologie étaient abordés et discutés dans le cadre de la Société Française de Microbiologie, ou de la Société Française d’Hématologie ou encore de la Société Française d’Allergie. 
 Le grand développement de l’immunologie rendait nécessaire l’abord et la discussion des problèmes dans un cadre plus spécifique. C'est alors que pendant la décennie 1960, plusieurs sociétés nationales d'immunologie sont créées à travers l'Europe et l'Amérique.
-En 1966, à l’initiative des Pr Pierre Grabar et Marcel Raynaud de l’Institut Pasteur, quelques immunologistes en grande partie pasteuriens, décidèrent de mettre sur pied la Société actuelle, issue de la section d’Immunologie créée un an plus tôt au sein de la Société Française de Microbiologie. Un bureau provisoire, puis une Assemblée Générale constitutive élaborèrent les Statuts qu’ils déposèrent à la Préfecture de Paris, cette même année[1].
-Au départ la Société Française d’Immunologie regroupait les 76 membres fondateurs. En 1977, l’augmentation du nombre de Chercheurs en Immunologie, l’accroissement considérable des applications de l’immunologie rendent indispensable d’asseoir la Société Française d’Immunologique sur des bases juridiques nouvelles. La reconnaissance d’Utilité Publique fut publiée au Journal Officiel du 22 février 1978[2].
+En 1966, à l’initiative des Pr Pierre Grabar et Marcel Raynaud de l’Institut Pasteur, quelques immunologistes en grande partie pasteuriens, décidèrent de mettre sur pied la Société actuelle, issue de la section d’Immunologie créée un an plus tôt au sein de la Société Française de Microbiologie. Un bureau provisoire, puis une Assemblée Générale constitutive élaborèrent les Statuts qu’ils déposèrent à la Préfecture de Paris, cette même année.
+Au départ la Société Française d’Immunologie regroupait les 76 membres fondateurs. En 1977, l’augmentation du nombre de Chercheurs en Immunologie, l’accroissement considérable des applications de l’immunologie rendent indispensable d’asseoir la Société Française d’Immunologique sur des bases juridiques nouvelles. La reconnaissance d’Utilité Publique fut publiée au Journal Officiel du 22 février 1978.
 Quelques années plus tard, en 1971, elle était une des dix sociétés nationales fondatrices de l'Union Internationale des Sociétés d'Immunologie (IUIS), puis de la Fédération Européenne des Sociétés d’Immunologie (EFIS). 
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+          <t>Société_française_d'immunologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,49 @@
           <t>Organisation de la société</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La SFI est gérée par un conseil d'administration.
 La permanence est assurée par le secrétariat.
-Liste des présidents
-Liste des secrétaires généraux
-Marcel Raynaud : 11 octobre 1966 – 15 janvier 1969
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_française_d'immunologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation de la société</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des secrétaires généraux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marcel Raynaud : 11 octobre 1966 – 15 janvier 1969
 Claude Lapresle : 15 janvier 1969 – 22 avril 1971
 Pierre Burtin : 22 avril 1971 – 25 avril 1974
 Stratis Avrameas : 25 avril 1974 – 9 mai 1975
@@ -574,9 +624,43 @@
 Sylvia Cohen-Kaminsky : janvier 2013 – décembre 2014
 Anne Caignard : janvier 2015 – décembre 2016
 Laetitia Gautreau-Roland : janvier 2017 – décembre 2019
-Julie Tabiasco : janvier 2020 –
-Liste des trésoriers
-André Eyquem : 11 octobre 1966 – 26 mai 1978
+Julie Tabiasco : janvier 2020 –</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Société_française_d'immunologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation de la société</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des trésoriers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>André Eyquem : 11 octobre 1966 – 26 mai 1978
 Laurent Degos : 26 mai 1978 – 25 mars 1982
 Philippe Lagrange : 25 mars 1982 – 31 mai 1985
 Laurent Degos : 31 mai 1985 – 27 avril 1989
@@ -589,9 +673,43 @@
 Paul Guglielmi : 27 novembre 2008 – 26 novembre 2010
 Jean-Luc Teillaud : 26 novembre 2010 – décembre 2014
 Paul Guglielmi : janvier 2015 – septembre 2018
-Aude Magerus : septembre 2018 –
-Conseil d'administration
-Renato Monteiro (Président)
+Aude Magerus : septembre 2018 –</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_française_d'immunologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation de la société</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conseil d'administration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Renato Monteiro (Président)
 Noushin Mossadegh-Keller (Vice-Présidente)
 Julie Tabiasco (Secrétaire générale)
 Aude Magerus (Trésorière)
@@ -608,8 +726,43 @@
 Daniel Olive
 Christophe Paget
 Léa Rémy-Tourneur
-Loredana Saveanu
-Autres membres
+Loredana Saveanu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Société_française_d'immunologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation de la société</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres membres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ivana Balter
  François Huetz
  Régis Josien
@@ -626,31 +779,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Société_française_d'immunologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27immunologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La SFI représente la France dans ses domaines de compétences auprès de :
 Le Comité Français des Unions Scientifiques (COFUSI) par son Comité National français d'Immunologie constitué par les membres de son Bureau.
